--- a/python_tools/src/装饰物品.xlsx
+++ b/python_tools/src/装饰物品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nox\Documents\GitHub\pokeemerald-expansion-Chinese\python_tools\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC3BF89-5A4B-4FA9-AEDF-FEBA80FDA8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56484159-D456-48C1-8362-90068F52A11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{8E271A76-5AB4-458A-AA8A-0FDB0B4EB531}"/>
   </bookViews>
@@ -1479,339 +1479,334 @@
     <t>DecorDesc_REGISTEEL_DOLL</t>
   </si>
   <si>
-    <t>单人尺寸的小型桌子</t>
-  </si>
-  <si>
-    <t>有著精灵球外形的小型桌子</t>
-  </si>
-  <si>
-    <t>用铁做成的大型桌子，上面可放置东西</t>
-  </si>
-  <si>
-    <t>用木头做成的大型桌子，上面可放置东西</t>
-  </si>
-  <si>
-    <t>用叶子做成的大型桌子，上面可放置东西</t>
-  </si>
-  <si>
-    <t>用玻璃做成的巨大桌子，可放置许多东西</t>
-  </si>
-  <si>
-    <t>用砖块做成的巨大桌子，可放置许多东西</t>
-  </si>
-  <si>
-    <t>用圆木做成的巨大桌子，可放置许多东西</t>
-  </si>
-  <si>
-    <t>用石头做成的巨大桌子，可放置许多东西</t>
-  </si>
-  <si>
-    <t>只能一个人坐的小椅子</t>
-  </si>
-  <si>
-    <t>有着精灵球模样的小型椅子</t>
-  </si>
-  <si>
-    <t>用铁做成的小型椅子</t>
-  </si>
-  <si>
-    <t>用木头做成的小型椅子</t>
-  </si>
-  <si>
-    <t>用叶子做成的小型椅子</t>
-  </si>
-  <si>
-    <t>用玻璃做成的小型椅子</t>
-  </si>
-  <si>
-    <t>用砖块做成的小型椅子</t>
-  </si>
-  <si>
-    <t>用圆木做成的小型椅子</t>
-  </si>
-  <si>
-    <t>用石头做成的小型椅子</t>
-  </si>
-  <si>
-    <t>种着鲜红花朵的盆栽</t>
-  </si>
-  <si>
-    <t>种着南国花朵的盆栽</t>
-  </si>
-  <si>
-    <t>种着可爱花朵的盆栽</t>
-  </si>
-  <si>
-    <t>栽着各式各样花朵的大型盆栽</t>
-  </si>
-  <si>
-    <t>种著像雨伞般树木的大型盆栽</t>
-  </si>
-  <si>
-    <t>种著高大树木的大型盆栽</t>
-  </si>
-  <si>
-    <t>红色的砖块，上面可放置东西</t>
-  </si>
-  <si>
-    <t>黄色的砖块，上面可放置东西</t>
-  </si>
-  <si>
-    <t>蓝色的砖块，上面可放置东西</t>
-  </si>
-  <si>
-    <t>一碰触就会崩塌的摆饰物品</t>
-  </si>
-  <si>
-    <t>小型的栅栏，无法加以通过</t>
-  </si>
-  <si>
-    <t>从台子上方可以滑下来</t>
-  </si>
-  <si>
-    <t>老旧的大型轮胎，上面可放置东西</t>
-  </si>
-  <si>
-    <t>放在洞穴的上方的话就可以走到对面去</t>
-  </si>
-  <si>
-    <t>大型的红色账篷，可以进入里面</t>
-  </si>
-  <si>
-    <t>大型的蓝色账篷，可以进入里面</t>
-  </si>
-  <si>
-    <t>在对战塔战胜50人的纪念奖牌</t>
-  </si>
-  <si>
-    <t>在对战塔战胜100人的纪念奖牌</t>
-  </si>
-  <si>
-    <t>巨大的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>灰色的小型玩具电视机</t>
-  </si>
-  <si>
-    <t>装有水的红色气球，踩上去就会破掉</t>
-  </si>
-  <si>
-    <t>装有水的蓝色气球，踩上去就会破掉</t>
-  </si>
-  <si>
-    <t>装有水的黄色气球，踩上去就会破掉</t>
-  </si>
-  <si>
-    <t>圆形的泥巴丸子，一踩上去就会破掉</t>
-  </si>
-  <si>
-    <t>可以穿越通过的奇怪门板</t>
-  </si>
-  <si>
-    <t>踩上去之后会闪亮亮的神奇地毯</t>
-  </si>
-  <si>
-    <t>踩上去之后会跳跃的恶作剧地毯</t>
-  </si>
-  <si>
-    <t>踩上去之后会旋转的恶作剧地毯</t>
-  </si>
-  <si>
-    <t>以冲浪形象制作的地毯，上面可放置东西</t>
-  </si>
-  <si>
-    <t>以打雷形象制作的地毯，上面可放置东西</t>
-  </si>
-  <si>
-    <t>以大字爆炎形象制作的地毯，上面可放置东西</t>
-  </si>
-  <si>
-    <t>以细雪形象制作的地毯，上面可放置东西</t>
-  </si>
-  <si>
-    <t>以迷人形象制作的地毯，上面可放置东西</t>
-  </si>
-  <si>
-    <t>以地裂形象制作的地毯，上面可放置东西</t>
-  </si>
-  <si>
-    <t>以撒菱形象制作的地毯，上面可放置东西</t>
-  </si>
-  <si>
-    <t>踩著阶梯就可以爬到台上</t>
-  </si>
-  <si>
-    <t>以玻璃依照美术馆里的知名雕刻模仿制作而成的东西</t>
-  </si>
-  <si>
-    <t>印有木守宫的小张海报</t>
-  </si>
-  <si>
-    <t>印有火稚鸡的小张海报</t>
-  </si>
-  <si>
-    <t>印有水跃鱼的小张海报</t>
-  </si>
-  <si>
-    <t>印有露力丽的小张海报</t>
-  </si>
-  <si>
-    <t>印有皮卡丘和皮丘的大张海报</t>
-  </si>
-  <si>
-    <t>印有饭匙蛇的大张海报</t>
-  </si>
-  <si>
-    <t>印有古空棘鱼的大张海报</t>
-  </si>
-  <si>
-    <t>印有长翅鸥的大张海报</t>
-  </si>
-  <si>
-    <t>印有迷唇娃的大张海报</t>
-  </si>
-  <si>
-    <t>皮丘的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>皮卡丘的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>玛力露的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>波克比的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>火球鼠的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>菊草叶的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>小锯鳄的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>胖丁的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>喵喵的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>皮皮的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>百变怪的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>迷唇娃的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>木守宫的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>火稚鸡的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>水跃鱼的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>夜巡灵的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>小果然的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>天秤偶的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>变隐龙的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>露力丽的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>向尾喵的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>青绵鸟的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>溶食兽的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>莲叶童子的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>橡实果的玩偶，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>皮卡丘的垫子，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>玛力露丽的垫子，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>蛇纹熊的垫子，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>晃晃斑的垫子，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>勾魂眼的垫子，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>迷唇娃的垫子，要放置在地毯和桌子上</t>
-  </si>
-  <si>
-    <t>以橡实果的样子所制作的玩具电视机</t>
-  </si>
-  <si>
-    <t>以向尾喵的样子所制作的玩具电视机</t>
-  </si>
-  <si>
-    <t>精灵球的垫子，要放置在地毯和桌子上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草标志垫子，要放置在地毯和桌子上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火标志垫子，要放置在地毯和桌子上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水标志垫子，要放置在地毯和桌子上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印有精灵球的小张海报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踩上去后会发出低音Do声的地毯</t>
-  </si>
-  <si>
-    <t>踩上去后会发出Re声的地毯</t>
-  </si>
-  <si>
-    <t>踩上去后会发出Mi声的地毯</t>
-  </si>
-  <si>
-    <t>踩上去后会发出Fa声的地毯</t>
-  </si>
-  <si>
-    <t>踩上去后会发出So声的地毯</t>
-  </si>
-  <si>
-    <t>踩上去后会发出La声的地毯</t>
-  </si>
-  <si>
     <t>踩上去后会发出Ti声的地毯</t>
   </si>
   <si>
-    <t>踩上去后会发出高音Do声的地毯</t>
+    <t>单人尺寸的小型\n桌子</t>
+  </si>
+  <si>
+    <t>有著精灵球外形的\n小型桌子</t>
+  </si>
+  <si>
+    <t>用铁做成的大型\n桌子，上面可放置\n东西</t>
+  </si>
+  <si>
+    <t>用木头做成的大型\n桌子，上面可放置\n东西</t>
+  </si>
+  <si>
+    <t>用叶子做成的大型\n桌子，上面可放置\n东西</t>
+  </si>
+  <si>
+    <t>用玻璃做成的巨大\n桌子，可放置许多\n东西</t>
+  </si>
+  <si>
+    <t>用砖块做成的巨大\n桌子，可放置许多\n东西</t>
+  </si>
+  <si>
+    <t>用圆木做成的巨大\n桌子，可放置许多\n东西</t>
+  </si>
+  <si>
+    <t>用石头做成的巨大\n桌子，可放置许多\n东西</t>
+  </si>
+  <si>
+    <t>只能一个人坐的\n小椅子</t>
+  </si>
+  <si>
+    <t>有着精灵球模样的\n小型椅子</t>
+  </si>
+  <si>
+    <t>用铁做成的小型\n椅子</t>
+  </si>
+  <si>
+    <t>用木头做成的小型\n椅子</t>
+  </si>
+  <si>
+    <t>用叶子做成的小型\n椅子</t>
+  </si>
+  <si>
+    <t>用玻璃做成的小型\n椅子</t>
+  </si>
+  <si>
+    <t>用砖块做成的小型\n椅子</t>
+  </si>
+  <si>
+    <t>用圆木做成的小型\n椅子</t>
+  </si>
+  <si>
+    <t>用石头做成的小型\n椅子</t>
+  </si>
+  <si>
+    <t>种着鲜红花朵的\n盆栽</t>
+  </si>
+  <si>
+    <t>种着南国花朵的\n盆栽</t>
+  </si>
+  <si>
+    <t>种着可爱花朵的\n盆栽</t>
+  </si>
+  <si>
+    <t>栽着各式各样花朵\n的大型盆栽</t>
+  </si>
+  <si>
+    <t>种著像雨伞般树木\n的大型盆栽</t>
+  </si>
+  <si>
+    <t>种著高大树木的\n大型盆栽</t>
+  </si>
+  <si>
+    <t>红色的砖块，\n上面可放置东西</t>
+  </si>
+  <si>
+    <t>黄色的砖块，\n上面可放置东西</t>
+  </si>
+  <si>
+    <t>蓝色的砖块，\n上面可放置东西</t>
+  </si>
+  <si>
+    <t>装有水的红色气球\n，踩上去就会破掉</t>
+  </si>
+  <si>
+    <t>装有水的蓝色气球\n，踩上去就会破掉</t>
+  </si>
+  <si>
+    <t>装有水的黄色气球\n，踩上去就会破掉</t>
+  </si>
+  <si>
+    <t>大型的红色账篷，\n可以进入里面</t>
+  </si>
+  <si>
+    <t>大型的蓝色账篷，\n可以进入里面</t>
+  </si>
+  <si>
+    <t>放在洞穴的上方\n的话就可以走到\n对面去</t>
+  </si>
+  <si>
+    <t>从台子上方可以\n滑下来</t>
+  </si>
+  <si>
+    <t>小型的栅栏，\n无法加以通过</t>
+  </si>
+  <si>
+    <t>老旧的大型轮胎，\n上面可放置东西</t>
+  </si>
+  <si>
+    <t>踩著阶梯就可以\n爬到台上</t>
+  </si>
+  <si>
+    <t>圆形的泥巴丸子，\n一踩上去就会破掉</t>
+  </si>
+  <si>
+    <t>可以穿越通过的\n奇怪门板</t>
+  </si>
+  <si>
+    <t>一碰触就会崩塌的\n摆饰物品</t>
+  </si>
+  <si>
+    <t>在对战塔战胜\n50人的纪念奖牌</t>
+  </si>
+  <si>
+    <t>在对战塔战胜\n100人的纪念奖牌</t>
+  </si>
+  <si>
+    <t>以玻璃依照美术馆\n里的知名雕刻模仿\n制作而成的东西</t>
+  </si>
+  <si>
+    <t>灰色的小型玩具\n电视机</t>
+  </si>
+  <si>
+    <t>以橡实果的样子\n所制作的玩具\n电视机</t>
+  </si>
+  <si>
+    <t>以向尾喵的样子\n所制作的玩具\n电视机</t>
+  </si>
+  <si>
+    <t>踩上去之后会\n闪亮亮的神奇地毯</t>
+  </si>
+  <si>
+    <t>踩上去之后会\n跳跃的恶作剧地毯</t>
+  </si>
+  <si>
+    <t>踩上去之后会\n旋转的恶作剧地毯</t>
+  </si>
+  <si>
+    <t>踩上去后会发出\n低音Do声的地毯</t>
+  </si>
+  <si>
+    <t>踩上去后会发出\nRe声的地毯</t>
+  </si>
+  <si>
+    <t>踩上去后会发出\nMi声的地毯</t>
+  </si>
+  <si>
+    <t>踩上去后会发出\nFa声的地毯</t>
+  </si>
+  <si>
+    <t>踩上去后会发出\nSo声的地毯</t>
+  </si>
+  <si>
+    <t>踩上去后会发出\nLa声的地毯</t>
+  </si>
+  <si>
+    <t>踩上去后会发出\n高音Do声的地毯</t>
+  </si>
+  <si>
+    <t>以冲浪形象制作的\n地毯，上面可放置\n东西</t>
+  </si>
+  <si>
+    <t>以打雷形象制作的\n地毯，上面可放置\n东西</t>
+  </si>
+  <si>
+    <t>以大字爆炎形象\n制作的地毯，上面\n可放置东西</t>
+  </si>
+  <si>
+    <t>以细雪形象制作的\n地毯，上面可放置\n东西</t>
+  </si>
+  <si>
+    <t>以迷人形象制作的\n地毯，上面可放置\n东西</t>
+  </si>
+  <si>
+    <t>以地裂形象制作的\n地毯，上面可放置\n东西</t>
+  </si>
+  <si>
+    <t>以撒菱形象制作的\n地毯，上面可放置\n东西</t>
+  </si>
+  <si>
+    <t>印有精灵球的\n小张海报</t>
+  </si>
+  <si>
+    <t>印有木守宫的\n小张海报</t>
+  </si>
+  <si>
+    <t>印有火稚鸡的\n小张海报</t>
+  </si>
+  <si>
+    <t>印有水跃鱼的\n小张海报</t>
+  </si>
+  <si>
+    <t>印有露力丽的\n小张海报</t>
+  </si>
+  <si>
+    <t>印有皮卡丘和皮丘\n的大张海报</t>
+  </si>
+  <si>
+    <t>印有饭匙蛇的\n大张海报</t>
+  </si>
+  <si>
+    <t>印有古空棘鱼的\n大张海报</t>
+  </si>
+  <si>
+    <t>印有长翅鸥的\n大张海报</t>
+  </si>
+  <si>
+    <t>印有迷唇娃的\n大张海报</t>
+  </si>
+  <si>
+    <t>皮丘玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>皮卡丘玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>玛力露玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>波克比玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>火球鼠玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>菊草叶玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>小锯鳄玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>胖丁玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>喵喵玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>皮皮玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>百变怪玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>迷唇娃玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>木守宫玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>火稚鸡玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>水跃鱼玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>夜巡灵玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>小果然玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>天秤偶玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>变隐龙玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>露力丽玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>向尾喵玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>青绵鸟玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>溶食兽玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>莲叶童子玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>橡实果玩偶，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>皮卡丘垫子，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>玛力露丽垫子，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>迷唇娃垫子，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>蛇纹熊垫子，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>晃晃斑垫子，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>勾魂眼垫子，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>精灵球垫子，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>草标志垫子，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>火标志垫子，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>水标志垫子，\n要放置在地毯\n和桌子上</t>
+  </si>
+  <si>
+    <t>巨大玩偶，\n要放置在地毯\n和桌子上</t>
   </si>
 </sst>
 </file>
@@ -2177,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD87A2C-1080-4B60-8569-EC2FAC9AAA2D}">
   <dimension ref="A2:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2215,7 +2210,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2232,7 +2227,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2249,7 +2244,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2266,7 +2261,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2283,7 +2278,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2300,7 +2295,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2317,7 +2312,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2334,7 +2329,7 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2351,7 +2346,7 @@
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2368,7 +2363,7 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2385,7 +2380,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2402,7 +2397,7 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2419,7 +2414,7 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2436,7 +2431,7 @@
         <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2453,7 +2448,7 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2470,7 +2465,7 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2487,7 +2482,7 @@
         <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2504,7 +2499,7 @@
         <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2521,7 +2516,7 @@
         <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2538,7 +2533,7 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2555,7 +2550,7 @@
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2572,7 +2567,7 @@
         <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2589,7 +2584,7 @@
         <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2606,7 +2601,7 @@
         <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2623,7 +2618,7 @@
         <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2640,7 +2635,7 @@
         <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2657,7 +2652,7 @@
         <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2674,7 +2669,7 @@
         <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2691,7 +2686,7 @@
         <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2708,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2725,7 +2720,7 @@
         <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2742,7 +2737,7 @@
         <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2759,7 +2754,7 @@
         <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2776,7 +2771,7 @@
         <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2793,7 +2788,7 @@
         <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2810,7 +2805,7 @@
         <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2827,7 +2822,7 @@
         <v>148</v>
       </c>
       <c r="E39" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2844,7 +2839,7 @@
         <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2861,7 +2856,7 @@
         <v>156</v>
       </c>
       <c r="E41" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2878,7 +2873,7 @@
         <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2895,7 +2890,7 @@
         <v>164</v>
       </c>
       <c r="E43" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2912,7 +2907,7 @@
         <v>168</v>
       </c>
       <c r="E44" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2929,7 +2924,7 @@
         <v>172</v>
       </c>
       <c r="E45" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2946,7 +2941,7 @@
         <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2963,7 +2958,7 @@
         <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2980,7 +2975,7 @@
         <v>184</v>
       </c>
       <c r="E48" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2997,7 +2992,7 @@
         <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3014,7 +3009,7 @@
         <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3031,7 +3026,7 @@
         <v>196</v>
       </c>
       <c r="E51" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3048,7 +3043,7 @@
         <v>200</v>
       </c>
       <c r="E52" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3065,7 +3060,7 @@
         <v>204</v>
       </c>
       <c r="E53" t="s">
-        <v>583</v>
+        <v>531</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3082,7 +3077,7 @@
         <v>208</v>
       </c>
       <c r="E54" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -3099,7 +3094,7 @@
         <v>212</v>
       </c>
       <c r="E55" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3116,7 +3111,7 @@
         <v>216</v>
       </c>
       <c r="E56" t="s">
-        <v>586</v>
+        <v>534</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -3133,7 +3128,7 @@
         <v>220</v>
       </c>
       <c r="E57" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -3150,7 +3145,7 @@
         <v>224</v>
       </c>
       <c r="E58" t="s">
-        <v>588</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -3167,7 +3162,7 @@
         <v>228</v>
       </c>
       <c r="E59" t="s">
-        <v>589</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -3184,7 +3179,7 @@
         <v>232</v>
       </c>
       <c r="E60" t="s">
-        <v>590</v>
+        <v>537</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -3201,7 +3196,7 @@
         <v>236</v>
       </c>
       <c r="E61" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -3218,7 +3213,7 @@
         <v>240</v>
       </c>
       <c r="E62" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -3235,7 +3230,7 @@
         <v>244</v>
       </c>
       <c r="E63" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -3252,7 +3247,7 @@
         <v>248</v>
       </c>
       <c r="E64" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -3269,7 +3264,7 @@
         <v>252</v>
       </c>
       <c r="E65" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -3286,7 +3281,7 @@
         <v>256</v>
       </c>
       <c r="E66" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -3303,7 +3298,7 @@
         <v>260</v>
       </c>
       <c r="E67" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -3320,7 +3315,7 @@
         <v>264</v>
       </c>
       <c r="E68" t="s">
-        <v>582</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -3337,7 +3332,7 @@
         <v>268</v>
       </c>
       <c r="E69" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -3354,7 +3349,7 @@
         <v>272</v>
       </c>
       <c r="E70" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -3371,7 +3366,7 @@
         <v>276</v>
       </c>
       <c r="E71" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -3388,7 +3383,7 @@
         <v>280</v>
       </c>
       <c r="E72" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -3405,7 +3400,7 @@
         <v>284</v>
       </c>
       <c r="E73" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -3422,7 +3417,7 @@
         <v>288</v>
       </c>
       <c r="E74" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -3439,7 +3434,7 @@
         <v>292</v>
       </c>
       <c r="E75" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3456,7 +3451,7 @@
         <v>296</v>
       </c>
       <c r="E76" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -3473,7 +3468,7 @@
         <v>300</v>
       </c>
       <c r="E77" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -3490,7 +3485,7 @@
         <v>304</v>
       </c>
       <c r="E78" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -3507,7 +3502,7 @@
         <v>308</v>
       </c>
       <c r="E79" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -3524,7 +3519,7 @@
         <v>312</v>
       </c>
       <c r="E80" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3541,7 +3536,7 @@
         <v>316</v>
       </c>
       <c r="E81" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -3558,7 +3553,7 @@
         <v>320</v>
       </c>
       <c r="E82" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -3575,7 +3570,7 @@
         <v>324</v>
       </c>
       <c r="E83" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -3592,7 +3587,7 @@
         <v>328</v>
       </c>
       <c r="E84" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -3609,7 +3604,7 @@
         <v>332</v>
       </c>
       <c r="E85" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -3626,7 +3621,7 @@
         <v>336</v>
       </c>
       <c r="E86" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -3643,7 +3638,7 @@
         <v>340</v>
       </c>
       <c r="E87" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -3660,7 +3655,7 @@
         <v>344</v>
       </c>
       <c r="E88" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -3677,7 +3672,7 @@
         <v>348</v>
       </c>
       <c r="E89" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -3694,7 +3689,7 @@
         <v>352</v>
       </c>
       <c r="E90" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -3711,7 +3706,7 @@
         <v>356</v>
       </c>
       <c r="E91" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -3728,7 +3723,7 @@
         <v>360</v>
       </c>
       <c r="E92" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -3745,7 +3740,7 @@
         <v>364</v>
       </c>
       <c r="E93" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3762,7 +3757,7 @@
         <v>368</v>
       </c>
       <c r="E94" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -3779,7 +3774,7 @@
         <v>372</v>
       </c>
       <c r="E95" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -3796,7 +3791,7 @@
         <v>376</v>
       </c>
       <c r="E96" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3813,7 +3808,7 @@
         <v>380</v>
       </c>
       <c r="E97" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3830,7 +3825,7 @@
         <v>384</v>
       </c>
       <c r="E98" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3847,7 +3842,7 @@
         <v>388</v>
       </c>
       <c r="E99" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3864,7 +3859,7 @@
         <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3881,7 +3876,7 @@
         <v>396</v>
       </c>
       <c r="E101" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3898,7 +3893,7 @@
         <v>400</v>
       </c>
       <c r="E102" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3915,7 +3910,7 @@
         <v>404</v>
       </c>
       <c r="E103" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3932,7 +3927,7 @@
         <v>408</v>
       </c>
       <c r="E104" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3949,7 +3944,7 @@
         <v>412</v>
       </c>
       <c r="E105" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3966,7 +3961,7 @@
         <v>416</v>
       </c>
       <c r="E106" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3983,7 +3978,7 @@
         <v>420</v>
       </c>
       <c r="E107" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -4000,7 +3995,7 @@
         <v>424</v>
       </c>
       <c r="E108" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -4017,7 +4012,7 @@
         <v>428</v>
       </c>
       <c r="E109" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -4034,7 +4029,7 @@
         <v>432</v>
       </c>
       <c r="E110" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -4051,7 +4046,7 @@
         <v>436</v>
       </c>
       <c r="E111" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -4068,7 +4063,7 @@
         <v>440</v>
       </c>
       <c r="E112" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -4085,7 +4080,7 @@
         <v>444</v>
       </c>
       <c r="E113" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -4102,7 +4097,7 @@
         <v>448</v>
       </c>
       <c r="E114" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -4119,7 +4114,7 @@
         <v>452</v>
       </c>
       <c r="E115" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -4136,7 +4131,7 @@
         <v>456</v>
       </c>
       <c r="E116" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -4153,7 +4148,7 @@
         <v>460</v>
       </c>
       <c r="E117" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -4170,7 +4165,7 @@
         <v>464</v>
       </c>
       <c r="E118" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -4187,7 +4182,7 @@
         <v>468</v>
       </c>
       <c r="E119" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -4204,7 +4199,7 @@
         <v>472</v>
       </c>
       <c r="E120" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -4221,7 +4216,7 @@
         <v>476</v>
       </c>
       <c r="E121" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -4238,7 +4233,7 @@
         <v>480</v>
       </c>
       <c r="E122" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
